--- a/tests/expected_results/result_test_write_results_mixed_no_cfs.xlsx
+++ b/tests/expected_results/result_test_write_results_mixed_no_cfs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
@@ -210,14 +207,14 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
@@ -431,14 +428,14 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
@@ -737,14 +734,14 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
@@ -847,11 +844,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
+      <c r="C4" s="1" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.77</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>-2670</v>

--- a/tests/expected_results/result_test_write_results_mixed_no_cfs.xlsx
+++ b/tests/expected_results/result_test_write_results_mixed_no_cfs.xlsx
@@ -16,7 +16,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
+  <si>
+    <t>Start balance</t>
+  </si>
+  <si>
+    <t>End balance</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Redemption payments</t>
+  </si>
+  <si>
+    <t>Interest payments</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>Total income</t>
+  </si>
   <si>
     <t>Platform</t>
   </si>
@@ -25,27 +46,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Start balance</t>
-  </si>
-  <si>
-    <t>End balance</t>
-  </si>
-  <si>
-    <t>Investments</t>
-  </si>
-  <si>
-    <t>Redemption payments</t>
-  </si>
-  <si>
-    <t>Interest payments</t>
-  </si>
-  <si>
-    <t>Defaults</t>
-  </si>
-  <si>
-    <t>Total income</t>
   </si>
   <si>
     <t>Bondora</t>
@@ -79,8 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="DD.MM.YYYY"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -134,12 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,182 +443,204 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>43344</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.19</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-455</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>282.71</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>171.8</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>-12.43</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>159.37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="C3" s="2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3">
         <v>43374</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>19.6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-1411</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>265.51</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>164.38</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-18.63</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>145.75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3">
         <v>43405</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>19.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>5.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-419</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>238.52</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>166.58</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>-44.74</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>121.84</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" s="2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3">
         <v>43435</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5.7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.77</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-385</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>188.97</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>191.1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>-41.6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>149.51</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>43344</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -626,260 +652,290 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.19</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>-455</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>282.71</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>171.8</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>-12.43</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>159.37</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="C3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>19.6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-1411</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>265.51</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>164.38</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>-18.63</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>145.75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>19.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>5.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-419</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>238.52</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>166.58</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>-44.74</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>121.84</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5.7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.77</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-385</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>188.97</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>191.1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>-41.6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>149.51</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="C9" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -891,117 +947,131 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.19</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.77</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-2670</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>975.72</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>693.87</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>-117.4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>576.47</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
         <v>1.19</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.77</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>-2670</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>975.72</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>693.87</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>-117.4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>576.47</v>
       </c>
     </row>
